--- a/Valid_ImportTemplate/Customer Group RFC 2022 Spring-Summer.xlsx
+++ b/Valid_ImportTemplate/Customer Group RFC 2022 Spring-Summer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Article Number</t>
   </si>
@@ -68,6 +68,75 @@
   </si>
   <si>
     <t>40</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>09</t>
   </si>
 </sst>
 </file>
@@ -430,10 +499,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Valid_ImportTemplate/Customer Group RFC 2022 Spring-Summer.xlsx
+++ b/Valid_ImportTemplate/Customer Group RFC 2022 Spring-Summer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Article Number</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>09</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
 </sst>
 </file>
@@ -499,10 +505,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Valid_ImportTemplate/Customer Group RFC 2022 Spring-Summer.xlsx
+++ b/Valid_ImportTemplate/Customer Group RFC 2022 Spring-Summer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Article Number</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>32</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -505,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Valid_ImportTemplate/Customer Group RFC 2022 Spring-Summer.xlsx
+++ b/Valid_ImportTemplate/Customer Group RFC 2022 Spring-Summer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Article Number</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>56</t>
   </si>
 </sst>
 </file>
@@ -517,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Valid_ImportTemplate/Customer Group RFC 2022 Spring-Summer.xlsx
+++ b/Valid_ImportTemplate/Customer Group RFC 2022 Spring-Summer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Article Number</t>
   </si>
@@ -158,6 +158,21 @@
   </si>
   <si>
     <t>56</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
 </sst>
 </file>
@@ -520,10 +535,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
